--- a/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_seurat_clusters_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_seurat_clusters_speed_coherence.xlsx
@@ -434,50 +434,80 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -499,7 +529,7 @@
         <v>12.58303546905518</v>
       </c>
       <c r="F2" t="n">
-        <v>3.349909543991089</v>
+        <v>3.349932193756104</v>
       </c>
       <c r="G2" t="n">
         <v>9.715599060058594</v>
@@ -539,49 +569,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8158933215997588</v>
+        <v>0.8158935253538996</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9679366469751169</v>
+        <v>0.9679367063957968</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7984121148151034</v>
+        <v>0.7984124544363993</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9498765464800938</v>
+        <v>0.9498765490110765</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8550450962323409</v>
+        <v>0.8550262421504404</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9500447724546704</v>
+        <v>0.9500447934673678</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8838894321791845</v>
+        <v>0.8838896765169315</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8415205142910782</v>
+        <v>0.8415207155145108</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7542442925827242</v>
+        <v>0.7542444927742962</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8346313962824324</v>
+        <v>0.8346317660095345</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9066254224010448</v>
+        <v>0.9066255248371681</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6971791788589122</v>
+        <v>0.697172628932221</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8827352446395081</v>
+        <v>0.8827353669451429</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6966842642852238</v>
+        <v>0.6966845080256462</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8624217629432678</v>
+        <v>0.862421840429306</v>
       </c>
     </row>
   </sheetData>
